--- a/natmiOut/YoungD7/LR-pairs_lrc2p/F8-Lrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/F8-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.654743967029266</v>
+        <v>2.229372666666666</v>
       </c>
       <c r="H2">
-        <v>0.654743967029266</v>
+        <v>6.688117999999999</v>
       </c>
       <c r="I2">
-        <v>0.3032378763485752</v>
+        <v>0.5889623983027473</v>
       </c>
       <c r="J2">
-        <v>0.3032378763485752</v>
+        <v>0.5889623983027473</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N2">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q2">
-        <v>4.634974882594475</v>
+        <v>52.69300127293044</v>
       </c>
       <c r="R2">
-        <v>4.634974882594475</v>
+        <v>474.2370114563739</v>
       </c>
       <c r="S2">
-        <v>0.006725058732692811</v>
+        <v>0.040213437235638</v>
       </c>
       <c r="T2">
-        <v>0.006725058732692811</v>
+        <v>0.040213437235638</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.654743967029266</v>
+        <v>2.229372666666666</v>
       </c>
       <c r="H3">
-        <v>0.654743967029266</v>
+        <v>6.688117999999999</v>
       </c>
       <c r="I3">
-        <v>0.3032378763485752</v>
+        <v>0.5889623983027473</v>
       </c>
       <c r="J3">
-        <v>0.3032378763485752</v>
+        <v>0.5889623983027473</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N3">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q3">
-        <v>118.4523724191089</v>
+        <v>404.1593844225035</v>
       </c>
       <c r="R3">
-        <v>118.4523724191089</v>
+        <v>3637.434459802532</v>
       </c>
       <c r="S3">
-        <v>0.1718669856306545</v>
+        <v>0.3084401656016086</v>
       </c>
       <c r="T3">
-        <v>0.1718669856306545</v>
+        <v>0.3084401656016086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.654743967029266</v>
+        <v>2.229372666666666</v>
       </c>
       <c r="H4">
-        <v>0.654743967029266</v>
+        <v>6.688117999999999</v>
       </c>
       <c r="I4">
-        <v>0.3032378763485752</v>
+        <v>0.5889623983027473</v>
       </c>
       <c r="J4">
-        <v>0.3032378763485752</v>
+        <v>0.5889623983027473</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N4">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q4">
-        <v>66.23532093418666</v>
+        <v>247.6845212472668</v>
       </c>
       <c r="R4">
-        <v>66.23532093418666</v>
+        <v>2229.160691225401</v>
       </c>
       <c r="S4">
-        <v>0.09610330902415277</v>
+        <v>0.1890240773689391</v>
       </c>
       <c r="T4">
-        <v>0.09610330902415277</v>
+        <v>0.1890240773689391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.654743967029266</v>
+        <v>2.229372666666666</v>
       </c>
       <c r="H5">
-        <v>0.654743967029266</v>
+        <v>6.688117999999999</v>
       </c>
       <c r="I5">
-        <v>0.3032378763485752</v>
+        <v>0.5889623983027473</v>
       </c>
       <c r="J5">
-        <v>0.3032378763485752</v>
+        <v>0.5889623983027473</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N5">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q5">
-        <v>19.67178016860042</v>
+        <v>67.20006797999154</v>
       </c>
       <c r="R5">
-        <v>19.67178016860042</v>
+        <v>604.8006118199239</v>
       </c>
       <c r="S5">
-        <v>0.02854252296107517</v>
+        <v>0.05128471809656156</v>
       </c>
       <c r="T5">
-        <v>0.02854252296107517</v>
+        <v>0.05128471809656156</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.872465129874066</v>
+        <v>0.874264</v>
       </c>
       <c r="H6">
-        <v>0.872465129874066</v>
+        <v>2.622792</v>
       </c>
       <c r="I6">
-        <v>0.4040731743914946</v>
+        <v>0.2309657016471988</v>
       </c>
       <c r="J6">
-        <v>0.4040731743914946</v>
+        <v>0.2309657016471987</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N6">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q6">
-        <v>6.176237073636249</v>
+        <v>20.66392701125067</v>
       </c>
       <c r="R6">
-        <v>6.176237073636249</v>
+        <v>185.975343101256</v>
       </c>
       <c r="S6">
-        <v>0.008961333797776395</v>
+        <v>0.01576997915917953</v>
       </c>
       <c r="T6">
-        <v>0.008961333797776395</v>
+        <v>0.01576997915917953</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.872465129874066</v>
+        <v>0.874264</v>
       </c>
       <c r="H7">
-        <v>0.872465129874066</v>
+        <v>2.622792</v>
       </c>
       <c r="I7">
-        <v>0.4040731743914946</v>
+        <v>0.2309657016471988</v>
       </c>
       <c r="J7">
-        <v>0.4040731743914946</v>
+        <v>0.2309657016471987</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N7">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P7">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q7">
-        <v>157.8411863120072</v>
+        <v>158.4939141606453</v>
       </c>
       <c r="R7">
-        <v>157.8411863120072</v>
+        <v>1426.445227445808</v>
       </c>
       <c r="S7">
-        <v>0.2290176916324466</v>
+        <v>0.1209569566234589</v>
       </c>
       <c r="T7">
-        <v>0.2290176916324466</v>
+        <v>0.1209569566234588</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.872465129874066</v>
+        <v>0.874264</v>
       </c>
       <c r="H8">
-        <v>0.872465129874066</v>
+        <v>2.622792</v>
       </c>
       <c r="I8">
-        <v>0.4040731743914946</v>
+        <v>0.2309657016471988</v>
       </c>
       <c r="J8">
-        <v>0.4040731743914946</v>
+        <v>0.2309657016471987</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N8">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q8">
-        <v>88.26046636717247</v>
+        <v>97.13120803956534</v>
       </c>
       <c r="R8">
-        <v>88.26046636717247</v>
+        <v>874.1808723560879</v>
       </c>
       <c r="S8">
-        <v>0.1280604178294584</v>
+        <v>0.07412710689773039</v>
       </c>
       <c r="T8">
-        <v>0.1280604178294584</v>
+        <v>0.07412710689773037</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.872465129874066</v>
+        <v>0.874264</v>
       </c>
       <c r="H9">
-        <v>0.872465129874066</v>
+        <v>2.622792</v>
       </c>
       <c r="I9">
-        <v>0.4040731743914946</v>
+        <v>0.2309657016471988</v>
       </c>
       <c r="J9">
-        <v>0.4040731743914946</v>
+        <v>0.2309657016471987</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N9">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q9">
-        <v>26.21321173454185</v>
+        <v>26.35297413971733</v>
       </c>
       <c r="R9">
-        <v>26.21321173454185</v>
+        <v>237.176767257456</v>
       </c>
       <c r="S9">
-        <v>0.03803373113181334</v>
+        <v>0.02011165896682997</v>
       </c>
       <c r="T9">
-        <v>0.03803373113181334</v>
+        <v>0.02011165896682996</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.127035622741805</v>
+        <v>0.136774</v>
       </c>
       <c r="H10">
-        <v>0.127035622741805</v>
+        <v>0.410322</v>
       </c>
       <c r="I10">
-        <v>0.05883523086990405</v>
+        <v>0.0361333680411111</v>
       </c>
       <c r="J10">
-        <v>0.05883523086990405</v>
+        <v>0.0361333680411111</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N10">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q10">
-        <v>0.8992933883370855</v>
+        <v>3.232762590060666</v>
       </c>
       <c r="R10">
-        <v>0.8992933883370855</v>
+        <v>29.094863310546</v>
       </c>
       <c r="S10">
-        <v>0.001304818474248971</v>
+        <v>0.002467130214120244</v>
       </c>
       <c r="T10">
-        <v>0.001304818474248971</v>
+        <v>0.002467130214120244</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.127035622741805</v>
+        <v>0.136774</v>
       </c>
       <c r="H11">
-        <v>0.127035622741805</v>
+        <v>0.410322</v>
       </c>
       <c r="I11">
-        <v>0.05883523086990405</v>
+        <v>0.0361333680411111</v>
       </c>
       <c r="J11">
-        <v>0.05883523086990405</v>
+        <v>0.0361333680411111</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N11">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P11">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q11">
-        <v>22.98252699262076</v>
+        <v>24.79553843622533</v>
       </c>
       <c r="R11">
-        <v>22.98252699262076</v>
+        <v>223.159845926028</v>
       </c>
       <c r="S11">
-        <v>0.03334620958389241</v>
+        <v>0.01892307905302856</v>
       </c>
       <c r="T11">
-        <v>0.03334620958389241</v>
+        <v>0.01892307905302856</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.127035622741805</v>
+        <v>0.136774</v>
       </c>
       <c r="H12">
-        <v>0.127035622741805</v>
+        <v>0.410322</v>
       </c>
       <c r="I12">
-        <v>0.05883523086990405</v>
+        <v>0.0361333680411111</v>
       </c>
       <c r="J12">
-        <v>0.05883523086990405</v>
+        <v>0.0361333680411111</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N12">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q12">
-        <v>12.85119934828145</v>
+        <v>15.19566612419533</v>
       </c>
       <c r="R12">
-        <v>12.85119934828145</v>
+        <v>136.760995117758</v>
       </c>
       <c r="S12">
-        <v>0.01864628667725574</v>
+        <v>0.01159679561188631</v>
       </c>
       <c r="T12">
-        <v>0.01864628667725574</v>
+        <v>0.01159679561188631</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.127035622741805</v>
+        <v>0.136774</v>
       </c>
       <c r="H13">
-        <v>0.127035622741805</v>
+        <v>0.410322</v>
       </c>
       <c r="I13">
-        <v>0.05883523086990405</v>
+        <v>0.0361333680411111</v>
       </c>
       <c r="J13">
-        <v>0.05883523086990405</v>
+        <v>0.0361333680411111</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N13">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q13">
-        <v>3.816784834989311</v>
+        <v>4.122784061777332</v>
       </c>
       <c r="R13">
-        <v>3.816784834989311</v>
+        <v>37.10505655599599</v>
       </c>
       <c r="S13">
-        <v>0.005537916134506941</v>
+        <v>0.003146363162075988</v>
       </c>
       <c r="T13">
-        <v>0.005537916134506941</v>
+        <v>0.003146363162075988</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.504931353322182</v>
+        <v>0.544844</v>
       </c>
       <c r="H14">
-        <v>0.504931353322182</v>
+        <v>1.634532</v>
       </c>
       <c r="I14">
-        <v>0.2338537183900262</v>
+        <v>0.1439385320089428</v>
       </c>
       <c r="J14">
-        <v>0.2338537183900262</v>
+        <v>0.1439385320089428</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N14">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q14">
-        <v>3.574441702306117</v>
+        <v>12.87782254389733</v>
       </c>
       <c r="R14">
-        <v>3.574441702306117</v>
+        <v>115.900402895076</v>
       </c>
       <c r="S14">
-        <v>0.005186291402541411</v>
+        <v>0.009827899267273971</v>
       </c>
       <c r="T14">
-        <v>0.005186291402541411</v>
+        <v>0.009827899267273971</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.504931353322182</v>
+        <v>0.544844</v>
       </c>
       <c r="H15">
-        <v>0.504931353322182</v>
+        <v>1.634532</v>
       </c>
       <c r="I15">
-        <v>0.2338537183900262</v>
+        <v>0.1439385320089428</v>
       </c>
       <c r="J15">
-        <v>0.2338537183900262</v>
+        <v>0.1439385320089428</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N15">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P15">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q15">
-        <v>91.34916810486673</v>
+        <v>98.77389228761868</v>
       </c>
       <c r="R15">
-        <v>91.34916810486673</v>
+        <v>888.9650305885681</v>
       </c>
       <c r="S15">
-        <v>0.1325419309163507</v>
+        <v>0.07538074548940803</v>
       </c>
       <c r="T15">
-        <v>0.1325419309163507</v>
+        <v>0.07538074548940801</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.504931353322182</v>
+        <v>0.544844</v>
       </c>
       <c r="H16">
-        <v>0.504931353322182</v>
+        <v>1.634532</v>
       </c>
       <c r="I16">
-        <v>0.2338537183900262</v>
+        <v>0.1439385320089428</v>
       </c>
       <c r="J16">
-        <v>0.2338537183900262</v>
+        <v>0.1439385320089428</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N16">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q16">
-        <v>51.07995173865118</v>
+        <v>60.53246606643867</v>
       </c>
       <c r="R16">
-        <v>51.07995173865118</v>
+        <v>544.792194597948</v>
       </c>
       <c r="S16">
-        <v>0.07411381597676685</v>
+        <v>0.04619623984355642</v>
       </c>
       <c r="T16">
-        <v>0.07411381597676685</v>
+        <v>0.04619623984355642</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.504931353322182</v>
+        <v>0.544844</v>
       </c>
       <c r="H17">
-        <v>0.504931353322182</v>
+        <v>1.634532</v>
       </c>
       <c r="I17">
-        <v>0.2338537183900262</v>
+        <v>0.1439385320089428</v>
       </c>
       <c r="J17">
-        <v>0.2338537183900262</v>
+        <v>0.1439385320089428</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N17">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q17">
-        <v>15.17066072079422</v>
+        <v>16.42325412253066</v>
       </c>
       <c r="R17">
-        <v>15.17066072079422</v>
+        <v>147.809287102776</v>
       </c>
       <c r="S17">
-        <v>0.02201168009436725</v>
+        <v>0.01253364740870436</v>
       </c>
       <c r="T17">
-        <v>0.02201168009436725</v>
+        <v>0.01253364740870436</v>
       </c>
     </row>
   </sheetData>
